--- a/HERD_Export_cleaned.xlsx
+++ b/HERD_Export_cleaned.xlsx
@@ -8,21 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkao/cs_projects/deerfield-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D9045918-BC09-B341-BECB-5874B84A949A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C059A7-341E-4549-B24D-DADF13B7C026}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
   <sheets>
-    <sheet name="HERD_Export_cleaned" sheetId="1" r:id="rId1"/>
+    <sheet name="HERD_Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="14">
+  <si>
+    <t>Health sciences</t>
+  </si>
   <si>
     <t>Columbia U. in the City of New York</t>
+  </si>
+  <si>
+    <t>[Institution Name]</t>
+  </si>
+  <si>
+    <t>[Detailed Field]</t>
   </si>
   <si>
     <t>Total for selected values</t>
@@ -49,13 +58,10 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Institution</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
-    <t>Amount</t>
+    <t>Expenditures</t>
   </si>
 </sst>
 </file>
@@ -897,922 +903,1253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>893062000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>424385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>893062000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>424385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>23857000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>424385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2017</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>62747000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>71307000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>51342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>81553000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>32978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5758000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>38032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>647840000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>837312000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>295322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2016</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>837312000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>386197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2016</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>23508000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>386197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2016</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>53861000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>386197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2016</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>70264000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2016</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>82667000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>42350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2016</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6555000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>32845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2016</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1">
-        <v>600457000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>38648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>868159000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>868159000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>264850</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>2015</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>26282000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>305806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>2015</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>39629000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>305806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>2015</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1">
-        <v>117648000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>305806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2015</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1">
-        <v>80911000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>2015</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="1">
-        <v>11144000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>21311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>2015</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1">
-        <v>592545000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="1">
+        <v>43260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>890642000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1">
+        <v>29614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>890642000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>25050000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1">
+        <v>198885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>2014</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>35894000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>332248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>2014</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="1">
-        <v>124948000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>332248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>2014</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1">
-        <v>80211000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>332248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>2014</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1">
-        <v>15951000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>2014</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>19436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>2014</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="1">
-        <v>608588000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>2013</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>889188000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="1">
+        <v>55679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>889188000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1">
+        <v>31518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1">
-        <v>20595000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1">
-        <v>42990000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1">
+        <v>206560</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>2013</v>
       </c>
       <c r="B38" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="1">
-        <v>101419000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>368288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>2013</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
-        <v>70715000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1">
+        <v>368288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>2013</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1">
-        <v>17482000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>368288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>2013</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>2013</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1">
+        <v>19572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>2013</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="1">
-        <v>635987000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>2012</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>889487000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>2012</v>
-      </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>889487000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="1">
+        <v>45374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1">
-        <v>20248000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>29472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1">
-        <v>37341000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1">
+        <v>11153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B46" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="1">
-        <v>102628000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1">
+        <v>255007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>2012</v>
       </c>
       <c r="B47" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>71117000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1">
+        <v>402778</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>2012</v>
       </c>
       <c r="B48" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="1">
-        <v>12580000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1">
+        <v>402778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>2012</v>
       </c>
       <c r="B49" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1">
+        <v>402778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>2012</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>9257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>2012</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1">
+        <v>18113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>2012</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="1">
-        <v>645573000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>2011</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>878900000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>2011</v>
-      </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>878900000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>2011</v>
-      </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1">
-        <v>21041000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="1">
+        <v>47802</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B53" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1">
-        <v>35999000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1">
+        <v>31675</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="1">
-        <v>98734000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1">
+        <v>6759</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="1">
-        <v>65412000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1">
+        <v>289172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>2011</v>
       </c>
       <c r="B56" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="1">
-        <v>12481000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1">
+        <v>430148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>2011</v>
       </c>
       <c r="B57" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1">
+        <v>430148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>2011</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1">
+        <v>430148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>2011</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>10253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>2011</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1">
+        <v>21216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>2011</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="1">
-        <v>645233000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>2010</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <v>807235000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>2010</v>
-      </c>
-      <c r="B59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1">
-        <v>807235000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>2010</v>
-      </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="1">
-        <v>24970000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>2010</v>
-      </c>
-      <c r="B61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1">
-        <v>35548000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" s="1">
+        <v>50238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B62" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="1">
-        <v>95487000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>30767</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B63" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="1">
-        <v>66681000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1">
+        <v>6421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B64" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="1">
-        <v>12336000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1">
+        <v>311253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>2010</v>
       </c>
       <c r="B65" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1">
+        <v>393490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>2010</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1">
+        <v>393490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>2010</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1">
+        <v>393490</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>2010</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1">
+        <v>12368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>2010</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1">
+        <v>19051</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>2010</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="1">
-        <v>572213000</v>
+      <c r="E70" s="1">
+        <v>49486</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>2010</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1">
+        <v>33995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>2010</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="1">
+        <v>6786</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>2010</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="1">
+        <v>271804</v>
       </c>
     </row>
   </sheetData>
